--- a/course_data3.xlsx
+++ b/course_data3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nplon\Documents\Legacy\Code\Mac Units\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341808A7-B164-4E52-B97F-E6EBB99FB273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4CA4BB-476A-423A-930C-BA6FEBC58709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10333" uniqueCount="2964">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10473" uniqueCount="2983">
   <si>
     <t>Degree</t>
   </si>
@@ -8950,6 +8950,63 @@
   </si>
   <si>
     <t>CA</t>
+  </si>
+  <si>
+    <t>Bachelor of Business Analytics</t>
+  </si>
+  <si>
+    <t>BUSA3021</t>
+  </si>
+  <si>
+    <t>PACE: Business Analytics Project</t>
+  </si>
+  <si>
+    <t>ECON1031</t>
+  </si>
+  <si>
+    <t>PROF1000</t>
+  </si>
+  <si>
+    <t>Introduction to Professional Practice</t>
+  </si>
+  <si>
+    <t>Bachelor of Business Administration</t>
+  </si>
+  <si>
+    <t>MGMT1011</t>
+  </si>
+  <si>
+    <t>MGMT2010</t>
+  </si>
+  <si>
+    <t>Leadership in Management</t>
+  </si>
+  <si>
+    <t>MGMT2016</t>
+  </si>
+  <si>
+    <t>Business Demographics</t>
+  </si>
+  <si>
+    <t>MGMT2018</t>
+  </si>
+  <si>
+    <t>Management Communication</t>
+  </si>
+  <si>
+    <t>MGMT3050</t>
+  </si>
+  <si>
+    <t>Strategic Management</t>
+  </si>
+  <si>
+    <t>MGMT3060</t>
+  </si>
+  <si>
+    <t>PACE: Business Project</t>
+  </si>
+  <si>
+    <t>MGMT1020</t>
   </si>
 </sst>
 </file>
@@ -9317,10 +9374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K2390"/>
+  <dimension ref="A1:K2426"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1817" workbookViewId="0">
-      <selection activeCell="D1829" sqref="D1829"/>
+    <sheetView tabSelected="1" topLeftCell="A2385" workbookViewId="0">
+      <selection activeCell="C2400" sqref="C2400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -46811,6 +46868,496 @@
         <v>CA</v>
       </c>
     </row>
+    <row r="2392" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2392" t="s">
+        <v>2964</v>
+      </c>
+      <c r="B2392" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2392" t="s">
+        <v>2508</v>
+      </c>
+      <c r="D2392" t="s">
+        <v>2763</v>
+      </c>
+    </row>
+    <row r="2393" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2393" t="s">
+        <v>2964</v>
+      </c>
+      <c r="B2393" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2393" t="s">
+        <v>408</v>
+      </c>
+      <c r="D2393" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="2394" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2394" t="s">
+        <v>2964</v>
+      </c>
+      <c r="B2394" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2394" t="s">
+        <v>409</v>
+      </c>
+      <c r="D2394" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="2395" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2395" t="s">
+        <v>2964</v>
+      </c>
+      <c r="B2395" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2395" t="s">
+        <v>411</v>
+      </c>
+      <c r="D2395" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="2396" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2396" t="s">
+        <v>2964</v>
+      </c>
+      <c r="B2396" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2396" t="s">
+        <v>344</v>
+      </c>
+      <c r="D2396" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="2397" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2397" t="s">
+        <v>2964</v>
+      </c>
+      <c r="B2397" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2397" t="s">
+        <v>2509</v>
+      </c>
+      <c r="D2397" t="s">
+        <v>2764</v>
+      </c>
+    </row>
+    <row r="2398" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2398" t="s">
+        <v>2964</v>
+      </c>
+      <c r="B2398" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2398" t="s">
+        <v>416</v>
+      </c>
+      <c r="D2398" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="2399" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2399" t="s">
+        <v>2964</v>
+      </c>
+      <c r="B2399" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2399" t="s">
+        <v>2512</v>
+      </c>
+      <c r="D2399" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="2400" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2400" t="s">
+        <v>2964</v>
+      </c>
+      <c r="B2400" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2400" t="s">
+        <v>881</v>
+      </c>
+      <c r="D2400" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="2401" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2401" t="s">
+        <v>2964</v>
+      </c>
+      <c r="B2401" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2401" t="s">
+        <v>2507</v>
+      </c>
+      <c r="D2401" t="s">
+        <v>2762</v>
+      </c>
+    </row>
+    <row r="2402" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2402" t="s">
+        <v>2964</v>
+      </c>
+      <c r="B2402" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2402" t="s">
+        <v>426</v>
+      </c>
+      <c r="D2402" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="2403" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2403" t="s">
+        <v>2964</v>
+      </c>
+      <c r="B2403" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2403" t="s">
+        <v>2503</v>
+      </c>
+      <c r="D2403" t="s">
+        <v>2758</v>
+      </c>
+    </row>
+    <row r="2404" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2404" t="s">
+        <v>2964</v>
+      </c>
+      <c r="B2404" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2404" t="s">
+        <v>2510</v>
+      </c>
+      <c r="D2404" t="s">
+        <v>2765</v>
+      </c>
+    </row>
+    <row r="2405" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2405" t="s">
+        <v>2964</v>
+      </c>
+      <c r="B2405" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2405" t="s">
+        <v>2511</v>
+      </c>
+      <c r="D2405" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="2406" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2406" t="s">
+        <v>2964</v>
+      </c>
+      <c r="B2406" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2406" t="s">
+        <v>2965</v>
+      </c>
+      <c r="D2406" t="s">
+        <v>2966</v>
+      </c>
+    </row>
+    <row r="2407" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2407" t="s">
+        <v>2964</v>
+      </c>
+      <c r="B2407" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2407" t="s">
+        <v>2967</v>
+      </c>
+      <c r="D2407" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="2408" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2408" t="s">
+        <v>2964</v>
+      </c>
+      <c r="B2408" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2408" t="s">
+        <v>2968</v>
+      </c>
+      <c r="D2408" t="s">
+        <v>2969</v>
+      </c>
+    </row>
+    <row r="2409" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2409" t="s">
+        <v>2970</v>
+      </c>
+      <c r="B2409" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2409" t="s">
+        <v>341</v>
+      </c>
+      <c r="D2409" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="2410" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2410" t="s">
+        <v>2970</v>
+      </c>
+      <c r="B2410" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2410" t="s">
+        <v>343</v>
+      </c>
+      <c r="D2410" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="2411" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2411" t="s">
+        <v>2970</v>
+      </c>
+      <c r="B2411" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2411" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2411" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="2412" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2412" t="s">
+        <v>2970</v>
+      </c>
+      <c r="B2412" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2412" t="s">
+        <v>2498</v>
+      </c>
+      <c r="D2412" t="s">
+        <v>2753</v>
+      </c>
+    </row>
+    <row r="2413" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2413" t="s">
+        <v>2970</v>
+      </c>
+      <c r="B2413" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2413" t="s">
+        <v>2971</v>
+      </c>
+      <c r="D2413" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="2414" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2414" t="s">
+        <v>2970</v>
+      </c>
+      <c r="B2414" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2414" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2414" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="2415" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2415" t="s">
+        <v>2970</v>
+      </c>
+      <c r="B2415" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2415" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D2415" t="s">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="2416" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2416" t="s">
+        <v>2970</v>
+      </c>
+      <c r="B2416" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2416" t="s">
+        <v>2972</v>
+      </c>
+      <c r="D2416" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="2417" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2417" t="s">
+        <v>2970</v>
+      </c>
+      <c r="B2417" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2417" t="s">
+        <v>2974</v>
+      </c>
+      <c r="D2417" t="s">
+        <v>2975</v>
+      </c>
+    </row>
+    <row r="2418" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2418" t="s">
+        <v>2970</v>
+      </c>
+      <c r="B2418" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2418" t="s">
+        <v>2976</v>
+      </c>
+      <c r="D2418" t="s">
+        <v>2977</v>
+      </c>
+    </row>
+    <row r="2419" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2419" t="s">
+        <v>2970</v>
+      </c>
+      <c r="B2419" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2419" t="s">
+        <v>2503</v>
+      </c>
+      <c r="D2419" t="s">
+        <v>2758</v>
+      </c>
+    </row>
+    <row r="2420" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2420" t="s">
+        <v>2970</v>
+      </c>
+      <c r="B2420" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2420" t="s">
+        <v>2496</v>
+      </c>
+      <c r="D2420" t="s">
+        <v>2751</v>
+      </c>
+    </row>
+    <row r="2421" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2421" t="s">
+        <v>2970</v>
+      </c>
+      <c r="B2421" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2421" t="s">
+        <v>2978</v>
+      </c>
+      <c r="D2421" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="2422" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2422" t="s">
+        <v>2970</v>
+      </c>
+      <c r="B2422" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2422" t="s">
+        <v>2980</v>
+      </c>
+      <c r="D2422" t="s">
+        <v>2981</v>
+      </c>
+    </row>
+    <row r="2423" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2423" t="s">
+        <v>2970</v>
+      </c>
+      <c r="B2423" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2423" t="s">
+        <v>342</v>
+      </c>
+      <c r="D2423" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="2424" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2424" t="s">
+        <v>2970</v>
+      </c>
+      <c r="B2424" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2424" t="s">
+        <v>2489</v>
+      </c>
+      <c r="D2424" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="2425" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2425" t="s">
+        <v>2970</v>
+      </c>
+      <c r="B2425" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2425" t="s">
+        <v>2982</v>
+      </c>
+      <c r="D2425" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="2426" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2426" t="s">
+        <v>2970</v>
+      </c>
+      <c r="B2426" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2426" t="s">
+        <v>344</v>
+      </c>
+      <c r="D2426" t="s">
+        <v>1512</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D1826">
     <sortCondition ref="A2:A1826"/>
